--- a/ResultadoEleicoesDistritos/LISBOA_ALENQUER.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_ALENQUER.xlsx
@@ -597,64 +597,64 @@
         <v>11127</v>
       </c>
       <c r="H2" t="n">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="I2" t="n">
-        <v>1068</v>
+        <v>1160</v>
       </c>
       <c r="J2" t="n">
-        <v>4635</v>
+        <v>4556</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1269</v>
+        <v>1288</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="T2" t="n">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="U2" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V2" t="n">
-        <v>7127</v>
+        <v>7157</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7053</v>
+        <v>7055</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
